--- a/biology/Zoologie/Alburnus_belvica/Alburnus_belvica.xlsx
+++ b/biology/Zoologie/Alburnus_belvica/Alburnus_belvica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alburnus belvica est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus belvica se rencontre en Albanie, en Grèce et en Macédoine[4]. Cette espèce vit essentiellement dans les lacs Prespa mais se retrouve également dans les cours d'eau s'y jetant durant la période de reproduction[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus belvica se rencontre en Albanie, en Grèce et en Macédoine. Cette espèce vit essentiellement dans les lacs Prespa mais se retrouve également dans les cours d'eau s'y jetant durant la période de reproduction.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus belvica est de 220 mm pour les femelles, les mâles sont beaucoup plus petits (136 mm)[4].
-C'est un poisson de lacs qui occupe la partie supérieure de la colonne d'eau et ne vient sur le rivage que pour frayer[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus belvica est de 220 mm pour les femelles, les mâles sont beaucoup plus petits (136 mm).
+C'est un poisson de lacs qui occupe la partie supérieure de la colonne d'eau et ne vient sur le rivage que pour frayer.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Karaman, 1924 : Pisces Macedoniae. p. 1-90.</t>
         </is>
